--- a/docs/products/development_plan.xlsx
+++ b/docs/products/development_plan.xlsx
@@ -131,9 +131,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
@@ -191,24 +191,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,13 +205,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -236,13 +214,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -250,6 +227,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -260,21 +244,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,39 +281,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,8 +296,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,37 +403,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,139 +553,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,17 +703,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,26 +717,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,12 +750,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,164 +799,152 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1020,19 +1002,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1360,485 +1339,485 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.2857142857143" style="14" customWidth="1"/>
-    <col min="2" max="2" width="23.1428571428571" style="14" customWidth="1"/>
-    <col min="3" max="26" width="3.23809523809524" style="14" customWidth="1"/>
-    <col min="27" max="16384" width="9.14285714285714" style="14"/>
+    <col min="1" max="1" width="17.2857142857143" style="10" customWidth="1"/>
+    <col min="2" max="2" width="23.1428571428571" style="10" customWidth="1"/>
+    <col min="3" max="26" width="3.23809523809524" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="9.14285714285714" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="18" t="s">
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="18" t="s">
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="18" t="s">
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="17">
         <v>2</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="17">
         <v>3</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="17">
         <v>4</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="17">
         <v>5</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="17">
         <v>6</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="17">
         <v>7</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="17">
         <v>8</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="17">
         <v>9</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="17">
         <v>10</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="17">
         <v>11</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="17">
         <v>12</v>
       </c>
-      <c r="O2" s="21">
-        <v>1</v>
-      </c>
-      <c r="P2" s="21">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="21">
-        <v>3</v>
-      </c>
-      <c r="R2" s="21">
-        <v>4</v>
-      </c>
-      <c r="S2" s="21">
+      <c r="O2" s="17">
+        <v>13</v>
+      </c>
+      <c r="P2" s="17">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>15</v>
+      </c>
+      <c r="R2" s="17">
+        <v>16</v>
+      </c>
+      <c r="S2" s="17">
+        <v>17</v>
+      </c>
+      <c r="T2" s="17">
+        <v>18</v>
+      </c>
+      <c r="U2" s="17">
+        <v>19</v>
+      </c>
+      <c r="V2" s="17">
+        <v>20</v>
+      </c>
+      <c r="W2" s="17">
+        <v>21</v>
+      </c>
+      <c r="X2" s="17">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="17">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="21">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="28"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="21">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="25"/>
+      <c r="B5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="21">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="25"/>
+      <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="21">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="25"/>
+      <c r="B7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="21">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="25"/>
+      <c r="B8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="21">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="25"/>
+      <c r="B9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="21">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="25"/>
+      <c r="B10" s="23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="33"/>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="30"/>
-      <c r="B5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="30"/>
-      <c r="B6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="30"/>
-      <c r="B7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="30"/>
-      <c r="B8" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="30"/>
-      <c r="B9" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="30"/>
-      <c r="B10" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="30"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="32"/>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="33"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1861,7 +1840,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1885,7 +1864,7 @@
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1912,264 +1891,264 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4">
         <f t="shared" ref="D2:D9" si="0">SUM(F2:J2)</f>
         <v>24</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>2000</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>6</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>6</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>6</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>3</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="4">
         <v>3</v>
       </c>
-      <c r="K2" s="13">
-        <f>D2*E2</f>
+      <c r="K2" s="9">
+        <f t="shared" ref="K2:K9" si="1">D2*E2</f>
         <v>48000</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>5000</v>
       </c>
-      <c r="F3" s="6">
-        <f>SUM(F4:F9)</f>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:I3" si="2">SUM(F4:F9)</f>
         <v>3</v>
       </c>
-      <c r="G3" s="6">
-        <f>SUM(G4:G9)</f>
+      <c r="G3" s="4">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H3" s="6">
-        <f>SUM(H4:H9)</f>
+      <c r="H3" s="4">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I3" s="6">
-        <f>SUM(I4:I9)</f>
+      <c r="I3" s="4">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="13">
-        <f>D3*E3</f>
+      <c r="J3" s="4"/>
+      <c r="K3" s="9">
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>90000</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="13">
-        <f>D4*E4</f>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="9">
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>100000</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="13">
-        <f>D5*E5</f>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="9">
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>100000</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="13">
-        <f>D6*E6</f>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="9">
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="8"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>80000</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="13">
-        <f>D7*E7</f>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="9">
+        <f t="shared" si="1"/>
         <v>80000</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>70000</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="13">
-        <f>D8*E8</f>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="9">
+        <f t="shared" si="1"/>
         <v>70000</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="8"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>60000</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="13">
-        <f>D9*E9</f>
+      <c r="J9" s="4"/>
+      <c r="K9" s="9">
+        <f t="shared" si="1"/>
         <v>60000</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
         <f>SUMPRODUCT(E2:E9,F2:F9)</f>
         <v>267000</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="8">
         <f>SUMPRODUCT(E2:E9,G2:G9)</f>
         <v>117000</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="8">
         <f>SUMPRODUCT(E2:E9,H2:H9)</f>
         <v>117000</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="8">
         <f>SUMPRODUCT(E2:E9,I2:I9)</f>
         <v>71000</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="8">
         <f>SUMPRODUCT(E2:E9,J2:J9)</f>
         <v>6000</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="8">
         <f>SUM(K2:K9)</f>
         <v>578000</v>
       </c>

--- a/docs/products/development_plan.xlsx
+++ b/docs/products/development_plan.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+  <si>
+    <t>M0</t>
+  </si>
   <si>
     <t>M1</t>
   </si>
@@ -32,21 +35,27 @@
     <t>M5</t>
   </si>
   <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
     <t>Development</t>
   </si>
   <si>
     <t>3D Framework</t>
   </si>
   <si>
-    <t>File Manipulation</t>
+    <t>File System</t>
   </si>
   <si>
     <t>Model Repository</t>
   </si>
   <si>
-    <t>Point Cloud Modifiers</t>
-  </si>
-  <si>
     <t>Mesh Reconstruction</t>
   </si>
   <si>
@@ -59,15 +68,24 @@
     <t>AI Engine</t>
   </si>
   <si>
-    <t>Alfa</t>
-  </si>
-  <si>
-    <t>Beta</t>
+    <t>Alfa  1.0</t>
+  </si>
+  <si>
+    <t>Beta 1.0</t>
   </si>
   <si>
     <t>Release 1.0</t>
   </si>
   <si>
+    <t>Alfa  2.0</t>
+  </si>
+  <si>
+    <t>Beta 2.0</t>
+  </si>
+  <si>
+    <t>Release 2.0</t>
+  </si>
+  <si>
     <t>Items</t>
   </si>
   <si>
@@ -83,12 +101,6 @@
     <t>Expenses</t>
   </si>
   <si>
-    <t>Rental</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
     <t>Assets</t>
   </si>
   <si>
@@ -107,19 +119,10 @@
     <t>AI Algorithm Developmer</t>
   </si>
   <si>
-    <t>QA</t>
-  </si>
-  <si>
     <t>General / Automation Tester</t>
   </si>
   <si>
     <t>Document Writer</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Meida Producer</t>
   </si>
   <si>
     <t>Financial Needs</t>
@@ -136,7 +139,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,47 +148,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="0"/>
-      <name val="Constantia"/>
+      <name val="Corbel"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Constantia"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <name val="Corbel"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
       <i/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Constantia"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Corbel"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <i/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Corbel"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Corbel"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Corbel"/>
       <charset val="134"/>
     </font>
@@ -334,7 +330,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,7 +345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.25"/>
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,12 +399,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -576,7 +566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -585,97 +575,138 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="thick">
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.35"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="thick">
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.35"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.35"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
+      <right style="thin">
+        <color theme="0" tint="-0.35"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.35"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.35"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.35"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.35"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.35"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.35"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.35"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.35"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.35"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.35"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.35"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.35"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.35"/>
       </top>
-      <bottom/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.35"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="thick">
+        <color theme="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.35"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.35"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.35"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.35"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.35"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.35"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -781,7 +812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,222 +830,270 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1331,7 +1410,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B2"/>
@@ -1339,494 +1418,560 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.2857142857143" style="10" customWidth="1"/>
-    <col min="2" max="2" width="23.1428571428571" style="10" customWidth="1"/>
-    <col min="3" max="26" width="3.23809523809524" style="10" customWidth="1"/>
-    <col min="27" max="16384" width="9.14285714285714" style="10"/>
+    <col min="1" max="1" width="17.2857142857143" style="16" customWidth="1"/>
+    <col min="2" max="2" width="23.1428571428571" style="16" customWidth="1"/>
+    <col min="3" max="26" width="3.23809523809524" style="16" customWidth="1"/>
+    <col min="27" max="16384" width="9.14285714285714" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="14" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="14" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="14" t="s">
+      <c r="M1" s="19"/>
+      <c r="N1" s="20" t="s">
         <v>4</v>
       </c>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="20"/>
+      <c r="X1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="40" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23">
         <v>1</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="23">
         <v>2</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="23">
         <v>3</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="23">
         <v>4</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="23">
         <v>5</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="23">
         <v>6</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="23">
         <v>7</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="23">
         <v>8</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="23">
         <v>9</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="23">
         <v>10</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="23">
         <v>11</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="23">
         <v>12</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="23">
         <v>13</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="23">
         <v>14</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="23">
         <v>15</v>
       </c>
-      <c r="R2" s="17">
+      <c r="R2" s="23">
         <v>16</v>
       </c>
-      <c r="S2" s="17">
+      <c r="S2" s="23">
         <v>17</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="23">
         <v>18</v>
       </c>
-      <c r="U2" s="17">
+      <c r="U2" s="23">
         <v>19</v>
       </c>
-      <c r="V2" s="17">
+      <c r="V2" s="23">
         <v>20</v>
       </c>
-      <c r="W2" s="17">
+      <c r="W2" s="23">
         <v>21</v>
       </c>
-      <c r="X2" s="17">
+      <c r="X2" s="23">
         <v>22</v>
       </c>
-      <c r="Y2" s="17">
+      <c r="Y2" s="23">
         <v>23</v>
       </c>
-      <c r="Z2" s="17">
+      <c r="Z2" s="41">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="28"/>
+      <c r="A3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="42"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="43"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="25"/>
-      <c r="B5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="43"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="25"/>
-      <c r="B6" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="43"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="25"/>
-      <c r="B7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="43"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="25"/>
-      <c r="B8" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="43"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="25"/>
-      <c r="B9" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="43"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="25"/>
-      <c r="B10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="43"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="25"/>
-      <c r="B11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="44"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="44"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="44"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="27"/>
-      <c r="B14" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="28"/>
-    </row>
+      <c r="A14" s="28"/>
+      <c r="B14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="43"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="28"/>
+      <c r="B15" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="43"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="45"/>
+    </row>
+    <row r="17" ht="15.75"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:M1"/>
+  <mergeCells count="4">
+    <mergeCell ref="D1:G1"/>
     <mergeCell ref="O1:S1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A4:A16"/>
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1837,327 +1982,290 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="14.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="33.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="6.71428571428571" customWidth="1"/>
-    <col min="5" max="5" width="9.85714285714286" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="8" width="9.28571428571429" customWidth="1"/>
-    <col min="9" max="9" width="8.57142857142857" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="10.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="14.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="12.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="28.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="9.28571428571429" customWidth="1"/>
+    <col min="6" max="14" width="8.31428571428571" customWidth="1"/>
+    <col min="15" max="15" width="9.28571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4">
-        <f t="shared" ref="D2:D9" si="0">SUM(F2:J2)</f>
-        <v>24</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2000</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4">
-        <v>6</v>
-      </c>
-      <c r="I2" s="4">
-        <v>3</v>
-      </c>
-      <c r="J2" s="4">
-        <v>3</v>
-      </c>
-      <c r="K2" s="9">
-        <f t="shared" ref="K2:K9" si="1">D2*E2</f>
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4">
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5">
+        <f>SUM(F2:N2)</f>
+        <v>5</v>
+      </c>
+      <c r="E2" s="6">
+        <v>5000</v>
+      </c>
+      <c r="F2" s="7">
+        <f>SUM(F3:F7)</f>
+        <v>2</v>
+      </c>
+      <c r="G2" s="7">
+        <f>SUM(G3:G7)</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7">
+        <f>SUM(J3:J7)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="14">
+        <f t="shared" ref="O2:O8" si="0">D2*E2</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>90000</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="14">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E3" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:I3" si="2">SUM(F4:F9)</f>
-        <v>3</v>
-      </c>
-      <c r="G3" s="4">
-        <f t="shared" si="2"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="H3" s="4">
-        <f t="shared" si="2"/>
+      <c r="E4" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="4">
-        <f t="shared" si="2"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="14">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" ref="D2:D8" si="1">SUM(G5:N5)</f>
         <v>1</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="9">
+      <c r="E5" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="14">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>80000</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="14">
         <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E4" s="5">
-        <v>90000</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E7" s="6">
+        <v>70000</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="9">
-        <f t="shared" si="1"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>100000</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="9">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>100000</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="9">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>80000</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="9">
-        <f t="shared" si="1"/>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
         <v>70000</v>
       </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="9">
-        <f t="shared" si="1"/>
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>60000</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="9">
-        <f t="shared" si="1"/>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8">
-        <f>SUMPRODUCT(E2:E9,F2:F9)</f>
-        <v>267000</v>
-      </c>
-      <c r="G10" s="8">
-        <f>SUMPRODUCT(E2:E9,G2:G9)</f>
-        <v>117000</v>
-      </c>
-      <c r="H10" s="8">
-        <f>SUMPRODUCT(E2:E9,H2:H9)</f>
-        <v>117000</v>
-      </c>
-      <c r="I10" s="8">
-        <f>SUMPRODUCT(E2:E9,I2:I9)</f>
-        <v>71000</v>
-      </c>
-      <c r="J10" s="8">
-        <f>SUMPRODUCT(E2:E9,J2:J9)</f>
-        <v>6000</v>
-      </c>
-      <c r="K10" s="8">
-        <f>SUM(K2:K9)</f>
-        <v>578000</v>
-      </c>
-    </row>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12">
+        <f>SUMPRODUCT(E2:E7,F2:F7)</f>
+        <v>200000</v>
+      </c>
+      <c r="G8" s="12">
+        <f>SUMPRODUCT(E2:E7,G2:G7)</f>
+        <v>160000</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12">
+        <f>SUMPRODUCT(E2:E7,J2:J7)</f>
+        <v>105000</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="15">
+        <f>SUM(O2:O7)</f>
+        <v>465000</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/docs/products/development_plan.xlsx
+++ b/docs/products/development_plan.xlsx
@@ -89,184 +89,6 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Dong Zhao</author>
-  </authors>
-  <commentList>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Dong Zhao:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Milestone #1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dong Zhao:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Milestone #2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dong Zhao:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Milestone #3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dong Zhao:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Milestone #4</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dong Zhao:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Milestone #5</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dong Zhao:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Milestone #6</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dong Zhao:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Milestone #7</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="145">
   <si>
@@ -709,7 +531,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,19 +636,6 @@
     <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="18">
@@ -933,7 +742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1143,13 +952,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1346,6 +1168,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1627,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2988,7 +2813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3187,40 +3012,40 @@
       <c r="C3" s="56"/>
       <c r="D3" s="64"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="65"/>
       <c r="H3" s="65"/>
       <c r="I3" s="65"/>
       <c r="J3" s="65"/>
       <c r="K3" s="65"/>
       <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
+      <c r="M3" s="66"/>
       <c r="N3" s="65"/>
       <c r="O3" s="65"/>
       <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
+      <c r="Q3" s="66"/>
       <c r="R3" s="65"/>
       <c r="S3" s="65"/>
       <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
+      <c r="U3" s="66"/>
       <c r="V3" s="65"/>
       <c r="W3" s="65"/>
       <c r="X3" s="65"/>
       <c r="Y3" s="65"/>
       <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
+      <c r="AA3" s="66"/>
       <c r="AB3" s="65"/>
       <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
+      <c r="AD3" s="66"/>
       <c r="AE3" s="65"/>
       <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
+      <c r="AG3" s="66"/>
       <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
+      <c r="AI3" s="66"/>
       <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
+      <c r="AK3" s="66"/>
       <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
+      <c r="AM3" s="66"/>
       <c r="AN3" s="65"/>
       <c r="AO3" s="65"/>
     </row>
@@ -3705,6 +3530,5 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>